--- a/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/canals_costs_workings.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/canals_costs_workings.xlsx
@@ -600,10 +600,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94064.31505879021</v>
+        <v>94064.31505879022</v>
       </c>
       <c r="B3" t="n">
-        <v>94064.31505879021</v>
+        <v>94064.31505879022</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>91712.70718232045</v>
+        <v>91712.70718232046</v>
       </c>
       <c r="L3" t="n">
-        <v>91712.70718232045</v>
+        <v>91712.70718232046</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>57608.69565217396</v>
+        <v>57608.69565217397</v>
       </c>
       <c r="L4" t="n">
-        <v>57608.69565217396</v>
+        <v>57608.69565217397</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>57608.69565217396</v>
+        <v>57608.69565217397</v>
       </c>
       <c r="L6" t="n">
-        <v>57608.69565217396</v>
+        <v>57608.69565217397</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -2180,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>50000.00000000002</v>
+        <v>50000.00000000001</v>
       </c>
       <c r="L28" t="n">
-        <v>50000.00000000002</v>
+        <v>50000.00000000001</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3256,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>50000.00000000002</v>
+        <v>50000.00000000001</v>
       </c>
       <c r="L46" t="n">
-        <v>50000.00000000002</v>
+        <v>50000.00000000001</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3288,10 +3288,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>76095.947063689</v>
+        <v>76095.94706368899</v>
       </c>
       <c r="B47" t="n">
-        <v>76095.947063689</v>
+        <v>76095.94706368899</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -3318,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>74193.54838709677</v>
+        <v>74193.54838709676</v>
       </c>
       <c r="L47" t="n">
-        <v>74193.54838709677</v>
+        <v>74193.54838709676</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>57608.69565217396</v>
+        <v>57608.69565217397</v>
       </c>
       <c r="L54" t="n">
-        <v>57608.69565217396</v>
+        <v>57608.69565217397</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -3814,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>57608.69565217396</v>
+        <v>57608.69565217397</v>
       </c>
       <c r="L55" t="n">
-        <v>57608.69565217396</v>
+        <v>57608.69565217397</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>57608.69565217396</v>
+        <v>57608.69565217397</v>
       </c>
       <c r="L56" t="n">
-        <v>57608.69565217396</v>
+        <v>57608.69565217397</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -3908,10 +3908,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>57765.9888004716</v>
+        <v>57765.98880047161</v>
       </c>
       <c r="B57" t="n">
-        <v>57765.9888004716</v>
+        <v>57765.98880047161</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -3938,10 +3938,10 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>56321.83908045981</v>
+        <v>56321.83908045982</v>
       </c>
       <c r="L57" t="n">
-        <v>56321.83908045981</v>
+        <v>56321.83908045982</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>57765.9888004716</v>
+        <v>57765.98880047161</v>
       </c>
       <c r="B59" t="n">
-        <v>57765.9888004716</v>
+        <v>57765.98880047161</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -4062,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>56321.83908045981</v>
+        <v>56321.83908045982</v>
       </c>
       <c r="L59" t="n">
-        <v>56321.83908045981</v>
+        <v>56321.83908045982</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>50031.2695434647</v>
+        <v>50031.26954346471</v>
       </c>
       <c r="B62" t="n">
-        <v>50031.2695434647</v>
+        <v>50031.26954346471</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -4248,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>48780.48780487808</v>
+        <v>48780.48780487809</v>
       </c>
       <c r="L62" t="n">
-        <v>48780.48780487808</v>
+        <v>48780.48780487809</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>50031.2695434647</v>
+        <v>50031.26954346471</v>
       </c>
       <c r="B63" t="n">
-        <v>50031.2695434647</v>
+        <v>50031.26954346471</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -4310,10 +4310,10 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>48780.48780487808</v>
+        <v>48780.48780487809</v>
       </c>
       <c r="L63" t="n">
-        <v>48780.48780487808</v>
+        <v>48780.48780487809</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="B64" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -4372,10 +4372,10 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>79310.34482758619</v>
+        <v>79310.34482758617</v>
       </c>
       <c r="L64" t="n">
-        <v>79310.34482758619</v>
+        <v>79310.34482758617</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="B65" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -4434,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>79310.34482758619</v>
+        <v>79310.34482758617</v>
       </c>
       <c r="L65" t="n">
-        <v>79310.34482758619</v>
+        <v>79310.34482758617</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -4590,10 +4590,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>74074.0740740741</v>
+        <v>74074.07407407409</v>
       </c>
       <c r="B68" t="n">
-        <v>74074.0740740741</v>
+        <v>74074.07407407409</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -4620,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>72222.22222222225</v>
+        <v>72222.22222222223</v>
       </c>
       <c r="L68" t="n">
-        <v>72222.22222222225</v>
+        <v>72222.22222222223</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -5086,10 +5086,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>76095.947063689</v>
+        <v>76095.94706368899</v>
       </c>
       <c r="B76" t="n">
-        <v>76095.947063689</v>
+        <v>76095.94706368899</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -5116,10 +5116,10 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>74193.54838709677</v>
+        <v>74193.54838709676</v>
       </c>
       <c r="L76" t="n">
-        <v>74193.54838709677</v>
+        <v>74193.54838709676</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -5272,10 +5272,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="B79" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -5302,10 +5302,10 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>79310.34482758619</v>
+        <v>79310.34482758617</v>
       </c>
       <c r="L79" t="n">
-        <v>79310.34482758619</v>
+        <v>79310.34482758617</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -5458,10 +5458,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>53050.3978779841</v>
+        <v>53050.39787798409</v>
       </c>
       <c r="B82" t="n">
-        <v>53050.3978779841</v>
+        <v>53050.39787798409</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -5520,10 +5520,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>53050.3978779841</v>
+        <v>53050.39787798409</v>
       </c>
       <c r="B83" t="n">
-        <v>53050.3978779841</v>
+        <v>53050.39787798409</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -5612,10 +5612,10 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>47368.42105263157</v>
+        <v>47368.42105263158</v>
       </c>
       <c r="L84" t="n">
-        <v>47368.42105263157</v>
+        <v>47368.42105263158</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
